--- a/dicionario/dicionario (athenas.dev).xlsx
+++ b/dicionario/dicionario (athenas.dev).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4915A6DC-527A-4684-830A-0336EDA12BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\documenta-o_athenas.dev\dicionario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4854EF01-9191-4AC7-BACB-83C7066D796D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -15,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
   <si>
     <t>Usuario</t>
   </si>
@@ -277,13 +271,91 @@
   </si>
   <si>
     <t>classificação do armazenamento</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>EMAIL_feedback</t>
+  </si>
+  <si>
+    <t>Email do feedback</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>titulo_feedback</t>
+  </si>
+  <si>
+    <t>titulo do feedback</t>
+  </si>
+  <si>
+    <t>campo não pode estar null</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Mensagem_feedback</t>
+  </si>
+  <si>
+    <t>Mensagem do feedback</t>
+  </si>
+  <si>
+    <t>satisfação</t>
+  </si>
+  <si>
+    <t>satisfação_feedback</t>
+  </si>
+  <si>
+    <t>Satisfação do feedback</t>
+  </si>
+  <si>
+    <t>contatos</t>
+  </si>
+  <si>
+    <t>ID_feedback</t>
+  </si>
+  <si>
+    <t>ID_Contatos</t>
+  </si>
+  <si>
+    <t>ID do contatos</t>
+  </si>
+  <si>
+    <t>EMAIL_contatos</t>
+  </si>
+  <si>
+    <t>Email do Contatos</t>
+  </si>
+  <si>
+    <t>titulo_contatos</t>
+  </si>
+  <si>
+    <t>titulo do contatos</t>
+  </si>
+  <si>
+    <t>Mensagem_contatos</t>
+  </si>
+  <si>
+    <t>Mensagem do contatos</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Nome_contatos</t>
+  </si>
+  <si>
+    <t>Nome do Contato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +395,42 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,8 +491,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E098"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6B8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94A6EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -676,11 +812,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,6 +964,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,13 +982,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,21 +1000,104 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF94A6EA"/>
+      <color rgb="FFA6B8D8"/>
+      <color rgb="FFE6E098"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1137,33 +1426,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N39"/>
+  <dimension ref="B1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="27.296875" customWidth="1"/>
+    <col min="6" max="6" width="32.69921875" customWidth="1"/>
+    <col min="7" max="7" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:9" ht="14.4">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="2:9">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="2:9" ht="14.4">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="14.4">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" ht="14.4">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="14.4">
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1243,7 +1532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" ht="14.4">
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" ht="14.4">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" ht="14.4">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" ht="14.4">
       <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
@@ -1326,17 +1615,17 @@
     <row r="11" spans="2:9">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="36" t="s">
+    <row r="12" spans="2:9" ht="14.4">
+      <c r="B12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="2:9" ht="14.4">
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
@@ -1356,15 +1645,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" ht="14.4">
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
+      <c r="D14" s="61" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="3">
         <v>25</v>
@@ -1376,7 +1665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" ht="14.4">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" ht="14.4">
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1416,7 +1705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" ht="14.4">
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" ht="14.4">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -1456,17 +1745,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="2:14" ht="14.4">
+      <c r="B21" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="2:14" ht="14.4">
       <c r="B22" s="27" t="s">
         <v>1</v>
       </c>
@@ -1487,15 +1776,15 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" ht="14.4">
       <c r="B23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>14</v>
+      <c r="D23" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="E23" s="28">
         <v>25</v>
@@ -1507,7 +1796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" ht="14.4">
       <c r="B24" s="28" t="s">
         <v>52</v>
       </c>
@@ -1527,7 +1816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" ht="14.4">
       <c r="B25" s="28" t="s">
         <v>55</v>
       </c>
@@ -1547,7 +1836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" ht="14.4">
       <c r="B26" s="28" t="s">
         <v>59</v>
       </c>
@@ -1567,7 +1856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" ht="14.4">
       <c r="B27" s="28" t="s">
         <v>32</v>
       </c>
@@ -1587,17 +1876,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="30" t="s">
+    <row r="30" spans="2:14" ht="14.4">
+      <c r="B30" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="2:14">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="2:14" ht="14.4">
       <c r="B31" s="13" t="s">
         <v>1</v>
       </c>
@@ -1617,15 +1906,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" ht="14.4">
       <c r="B32" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>14</v>
+      <c r="D32" s="63" t="s">
+        <v>30</v>
       </c>
       <c r="E32" s="17">
         <v>25</v>
@@ -1637,7 +1926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" ht="14.4">
       <c r="B33" s="16" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" ht="14.4">
       <c r="B34" s="16" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" ht="14.4">
       <c r="B35" s="19" t="s">
         <v>21</v>
       </c>
@@ -1697,7 +1986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" ht="14.4">
       <c r="B36" s="23" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +2006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" ht="14.4">
       <c r="B37" s="23" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +2026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" ht="14.4">
       <c r="B38" s="23" t="s">
         <v>28</v>
       </c>
@@ -1757,7 +2046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" ht="14.4">
       <c r="B39" s="23" t="s">
         <v>46</v>
       </c>
@@ -1777,13 +2066,296 @@
         <v>24</v>
       </c>
     </row>
+    <row r="41" spans="2:7" ht="14.4" thickBot="1"/>
+    <row r="42" spans="2:7" ht="15" thickBot="1">
+      <c r="B42" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="2:7" ht="15" thickBot="1">
+      <c r="B43" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="14.4">
+      <c r="B44" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="50">
+        <v>25</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="14.4">
+      <c r="B45" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="50">
+        <v>50</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="14.4">
+      <c r="B46" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="50">
+        <v>50</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15" thickBot="1">
+      <c r="B47" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="53">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="14.4">
+      <c r="B48" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="56">
+        <v>0</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="14.4">
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="2:7" ht="14.4">
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
+    </row>
+    <row r="51" spans="2:7" ht="14.4">
+      <c r="B51" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="2:7" ht="14.4">
+      <c r="B52" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="14.4">
+      <c r="B53" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="69">
+        <v>25</v>
+      </c>
+      <c r="F53" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="14.4">
+      <c r="B54" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="69">
+        <v>50</v>
+      </c>
+      <c r="F54" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="14.4">
+      <c r="B55" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="69">
+        <v>50</v>
+      </c>
+      <c r="F55" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="14.4">
+      <c r="B56" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="69">
+        <v>1000</v>
+      </c>
+      <c r="F56" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" s="69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="14.4">
+      <c r="B57" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="69">
+        <v>0</v>
+      </c>
+      <c r="F57" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="D59" s="70"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B51:G51"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>